--- a/spliced/struggle/2023-04-11_10-08-57/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-08-57/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.08938375115394598</v>
+        <v>0.001320064067840854</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1692165168933569</v>
+        <v>0.1883212360553446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5018252262379972</v>
+        <v>-0.001869207888376141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1929084062576291</v>
+        <v>-0.1889566183090211</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4109948240220542</v>
+        <v>0.01437168661504978</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.720066420733919</v>
+        <v>0.113000919460319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.000434547662735</v>
+        <v>-0.08938375115394598</v>
       </c>
       <c r="B4" t="n">
-        <v>2.042165352962912</v>
+        <v>-0.1692165168933569</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.599539369344711</v>
+        <v>0.5018252262379972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.09021557867526875</v>
+        <v>-0.1929084062576291</v>
       </c>
       <c r="B5" t="n">
-        <v>1.365645807236434</v>
+        <v>-0.4109948240220542</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.053896635770798</v>
+        <v>-4.720066420733919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5174209550023052</v>
+        <v>2.000434547662735</v>
       </c>
       <c r="B6" t="n">
-        <v>1.105433903634548</v>
+        <v>2.042165352962912</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9973694682121375</v>
+        <v>-6.599539369344711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.629707574844347</v>
+        <v>-0.09021557867526875</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8005782067775653</v>
+        <v>1.365645807236434</v>
       </c>
       <c r="C7" t="n">
-        <v>2.141507089138026</v>
+        <v>-6.053896635770798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-7.056866303086275</v>
+        <v>0.5174209550023052</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3514397386461448</v>
+        <v>1.105433903634548</v>
       </c>
       <c r="C8" t="n">
-        <v>2.944397807121277</v>
+        <v>-0.9973694682121375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-9.603626579046249</v>
+        <v>-2.629707574844347</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5813145525753456</v>
+        <v>-0.8005782067775653</v>
       </c>
       <c r="C9" t="n">
-        <v>3.010353595018387</v>
+        <v>2.141507089138026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.548536062240635</v>
+        <v>-7.056866303086275</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.370640006847683</v>
+        <v>0.3514397386461448</v>
       </c>
       <c r="C10" t="n">
-        <v>1.629433391615754</v>
+        <v>2.944397807121277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.60937356948853</v>
+        <v>-9.603626579046249</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.991274744272228</v>
+        <v>-0.5813145525753456</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.746213614940636</v>
+        <v>3.010353595018387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.6547532081603959</v>
+        <v>-2.548536062240635</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.344839558005337</v>
+        <v>-1.370640006847683</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.395508795976642</v>
+        <v>1.629433391615754</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.140061497688298</v>
+        <v>2.60937356948853</v>
       </c>
       <c r="B13" t="n">
-        <v>1.616844072937961</v>
+        <v>-1.991274744272228</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.33512344956397</v>
+        <v>-1.746213614940636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.699982233345492</v>
+        <v>-0.6547532081603959</v>
       </c>
       <c r="B14" t="n">
-        <v>1.653415338136266</v>
+        <v>-1.344839558005337</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.297598630189903</v>
+        <v>-2.395508795976642</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.490441828966164</v>
+        <v>-2.140061497688298</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07099017873406821</v>
+        <v>1.616844072937961</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.911463320255252</v>
+        <v>-2.33512344956397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.688229024410236</v>
+        <v>-2.699982233345492</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4744371799752133</v>
+        <v>1.653415338136266</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.912044033408196</v>
+        <v>-4.297598630189903</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.18423932045698</v>
+        <v>-4.490441828966164</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4117047395557177</v>
+        <v>-0.07099017873406821</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.166765406727792</v>
+        <v>-4.911463320255252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.577035415917628</v>
+        <v>-1.688229024410236</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.492048852145675</v>
+        <v>0.4744371799752133</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.207581005990504</v>
+        <v>-6.912044033408196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-10.87109673023223</v>
+        <v>-3.18423932045698</v>
       </c>
       <c r="B19" t="n">
-        <v>1.911675244569787</v>
+        <v>-0.4117047395557177</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.179039120674157</v>
+        <v>-1.166765406727792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-13.28029692173006</v>
+        <v>-1.577035415917628</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.184043031185867</v>
+        <v>-1.492048852145675</v>
       </c>
       <c r="C20" t="n">
-        <v>7.776417866349263</v>
+        <v>-4.207581005990504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-10.87109673023223</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.911675244569787</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.179039120674157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-13.28029692173006</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.184043031185867</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.776417866349263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-7.754817754030277</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-1.696428641676895</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-6.568115353584284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.677844420075353</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-3.651133604347696</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.842656075954431</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.627654522657398</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.928949266672134</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.230176210403448</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-4.852406792342663</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3913787733763447</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2968738228082666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.301035702228551</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.64691380783915</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.109266191720954</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.465943455696097</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.991184197366218</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.608212560415278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.307898223400096</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.068972408771528</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7334359884262174</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.702915767207749</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.5735956337302961</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.9715757742524092</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.414293382316824</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2869436666369428</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1008520126342796</v>
       </c>
     </row>
   </sheetData>
